--- a/javaee7-web-tips/testscript/IntegrationTest.xlsx
+++ b/javaee7-web-tips/testscript/IntegrationTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestScript" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -253,7 +253,7 @@
     <t>#{params['userId']}を削除しました。</t>
   </si>
   <si>
-    <t>errorMessage</t>
+    <t>p.errmsg</t>
   </si>
   <si>
     <t>この画面を表示する権限がありません。</t>
@@ -472,21 +472,21 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.58604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1581395348837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.6139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.1581395348837"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="33.8325581395349"/>
-    <col collapsed="false" hidden="false" max="256" min="11" style="1" width="9.52558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.81395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.893023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="13.0790697674419"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="36.4744186046512"/>
+    <col collapsed="false" hidden="false" max="256" min="11" style="1" width="10.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -764,7 +764,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="14" t="str">
         <f aca="true">"TEST"&amp;ROUND(RAND()*1000,0)</f>
-        <v>TEST59</v>
+        <v>TEST446</v>
       </c>
       <c r="J11" s="16"/>
     </row>
@@ -1253,7 +1253,9 @@
       <c r="C32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>76</v>
       </c>

--- a/javaee7-web-tips/testscript/IntegrationTest.xlsx
+++ b/javaee7-web-tips/testscript/IntegrationTest.xlsx
@@ -178,7 +178,7 @@
     <t>gender:radio</t>
   </si>
   <si>
-    <t>labe</t>
+    <t>label</t>
   </si>
   <si>
     <t>男性</t>
@@ -472,21 +472,21 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.81395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.893023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="13.0790697674419"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="36.4744186046512"/>
-    <col collapsed="false" hidden="false" max="256" min="11" style="1" width="10.3209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.15813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.5162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.1023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.8232558139535"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="14.1023255813953"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="39.3395348837209"/>
+    <col collapsed="false" hidden="false" max="256" min="11" style="1" width="11.1255813953488"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.893023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -764,7 +764,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="14" t="str">
         <f aca="true">"TEST"&amp;ROUND(RAND()*1000,0)</f>
-        <v>TEST446</v>
+        <v>TEST651</v>
       </c>
       <c r="J11" s="16"/>
     </row>
